--- a/docs/Test-Cases-Stauts.xlsx
+++ b/docs/Test-Cases-Stauts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Title</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">Implement sorting that changes with a dropdown. The sort options should be title and created_date. </t>
+  </si>
+  <si>
+    <t>Implement a notification to tell the user that edits have been successfully saved.</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -654,8 +657,12 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
   </sheetData>

--- a/docs/Test-Cases-Stauts.xlsx
+++ b/docs/Test-Cases-Stauts.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -45,9 +45,6 @@
     <t xml:space="preserve">A request should be made to a backend REST service to get an id for the new idea, as well as the created_date. </t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Ramark</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>Implement a notification to tell the user that edits have been successfully saved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use localStorage to persist the ideas so that they persist after a page refresh. </t>
+  </si>
+  <si>
+    <t>Done partially</t>
   </si>
 </sst>
 </file>
@@ -451,23 +454,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="101.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -476,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -495,7 +498,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -507,7 +510,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -519,7 +522,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -547,18 +550,18 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -570,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -582,13 +585,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -596,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -608,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -622,7 +625,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -634,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -646,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -657,13 +660,25 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
